--- a/Netbeans/ANA-ADDIX/output/data_storage/roboteer.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/roboteer.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8191EC2-663C-4DAB-AAD8-C0A09167A069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15408</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15393</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15390</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15387</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15369</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15366</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15363</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15348</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15323</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15318</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15272</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15279</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15282</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15140</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15148</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15102</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15060</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15052</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15033</t>
+  </si>
+  <si>
+    <t>https://roboteer-tokyo.com/archives/15030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,25 +490,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -455,25 +624,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -483,25 +657,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD140"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -511,25 +690,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -539,25 +723,30 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -567,25 +756,30 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -595,25 +789,30 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -626,12 +825,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -651,25 +850,30 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -681,11 +885,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -705,25 +911,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD154"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -736,12 +947,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -761,25 +972,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -789,25 +1005,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD190"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -817,25 +1038,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -845,25 +1071,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -875,11 +1106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -899,25 +1132,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
